--- a/GATEWAY/A1#111CONSORZIOODMXX/CONSORZIOODM/HSG6/22.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111CONSORZIOODMXX/CONSORZIOODM/HSG6/22.1/report-checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\INVIO_DATI_20231207\A1#111CONSORZIOODMXX\HSG6\22.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\INVIO_DATI_20231207\A1#111CONSORZIOODMXX\CONSORZIOODM\HSG6\22.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11625" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4545,33 +4545,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1a9279e105^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>03a02338f2dd56dc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d331e3bb51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-12-07T12:44:22+0100</t>
-  </si>
-  <si>
-    <t>827e56f70537d266</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c74c7c5b7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-12-07T12:48:19+0100</t>
-  </si>
-  <si>
-    <t>6ba056e5788cf199</t>
-  </si>
-  <si>
-    <t>2023-12-07T12:51:56+0100</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.9444e314d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>3eb68b3bfe90c487</t>
   </si>
   <si>
@@ -4615,6 +4588,33 @@
   </si>
   <si>
     <t>Il campo Action_id non è modificabile</t>
+  </si>
+  <si>
+    <t>2023-12-21T14:19:54+0100</t>
+  </si>
+  <si>
+    <t>0f52984ea8167609</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.5efdac8337^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-21T14:21:23+0100</t>
+  </si>
+  <si>
+    <t>ec1e18bf5bc39802</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2fb8668f75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-21T14:22:20+0100</t>
+  </si>
+  <si>
+    <t>915b384770a73ace</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.298e993141^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5592,10 +5592,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M176" sqref="M176"/>
+      <selection pane="bottomRight" activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5608,7 +5608,7 @@
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="60.5703125" customWidth="1"/>
     <col min="12" max="15" width="36.42578125" customWidth="1"/>
@@ -6889,7 +6889,7 @@
         <v>843</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -6943,7 +6943,7 @@
         <v>843</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -7176,7 +7176,7 @@
         <v>45267</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
@@ -7191,7 +7191,7 @@
         <v>134</v>
       </c>
       <c r="N46" s="44" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="O46" s="44" t="s">
         <v>134</v>
@@ -11642,10 +11642,10 @@
         <v>45267</v>
       </c>
       <c r="G174" s="24" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="H174" s="24" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="I174" s="24" t="s">
         <v>880</v>
@@ -11667,7 +11667,7 @@
         <v>843</v>
       </c>
       <c r="P174" s="25" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="Q174" s="25"/>
       <c r="R174" s="26"/>
@@ -11696,10 +11696,10 @@
         <v>45267</v>
       </c>
       <c r="G175" s="24" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="I175" s="24" t="s">
         <v>880</v>
@@ -11721,7 +11721,7 @@
         <v>843</v>
       </c>
       <c r="P175" s="25" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="Q175" s="25"/>
       <c r="R175" s="26"/>
@@ -11750,7 +11750,7 @@
         <v>45267</v>
       </c>
       <c r="G176" s="24" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
@@ -11765,7 +11765,7 @@
         <v>134</v>
       </c>
       <c r="N176" s="44" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="O176" s="25" t="s">
         <v>134</v>
@@ -13677,16 +13677,16 @@
         <v>335</v>
       </c>
       <c r="F232" s="23">
-        <v>45267</v>
+        <v>45281</v>
       </c>
       <c r="G232" s="38" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="H232" s="38" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="J232" s="25" t="s">
         <v>861</v>
@@ -13721,16 +13721,16 @@
         <v>337</v>
       </c>
       <c r="F233" s="23">
-        <v>45267</v>
+        <v>45281</v>
       </c>
       <c r="G233" s="34" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="H233" s="38" t="s">
-        <v>896</v>
-      </c>
-      <c r="I233" s="38" t="s">
-        <v>897</v>
+        <v>912</v>
+      </c>
+      <c r="I233" s="34" t="s">
+        <v>913</v>
       </c>
       <c r="J233" s="25" t="s">
         <v>134</v>
@@ -13765,16 +13765,16 @@
         <v>339</v>
       </c>
       <c r="F234" s="23">
-        <v>45267</v>
+        <v>45281</v>
       </c>
       <c r="G234" s="38" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="H234" s="38" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="I234" s="38" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="J234" s="25" t="s">
         <v>134</v>
@@ -14158,7 +14158,7 @@
         <v>843</v>
       </c>
       <c r="K244" s="25" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="L244" s="25"/>
       <c r="M244" s="25"/>
@@ -14196,7 +14196,7 @@
         <v>843</v>
       </c>
       <c r="K245" s="25" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="L245" s="25"/>
       <c r="M245" s="25"/>
@@ -14234,7 +14234,7 @@
         <v>843</v>
       </c>
       <c r="K246" s="25" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="L246" s="25"/>
       <c r="M246" s="25"/>
@@ -18852,13 +18852,13 @@
         <v>45267</v>
       </c>
       <c r="G381" s="38" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="H381" s="38" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="I381" s="38" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>134</v>

--- a/GATEWAY/A1#111CONSORZIOODMXX/CONSORZIOODM/HSG6/22.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111CONSORZIOODMXX/CONSORZIOODM/HSG6/22.1/report-checklist.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="916">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4584,12 +4584,6 @@
     <t>Il quesito diagnostico è un informazione che deve essere sempre compilata</t>
   </si>
   <si>
-    <t>Il campo purpose_of_use non è modificabile</t>
-  </si>
-  <si>
-    <t>Il campo Action_id non è modificabile</t>
-  </si>
-  <si>
     <t>2023-12-21T14:19:54+0100</t>
   </si>
   <si>
@@ -4615,6 +4609,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.298e993141^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Gestito in backoffice. L'errore verrà corretto da un operatore ed il documento verrà riprocessato. Invio per validazione, firma e invio a FSE</t>
   </si>
 </sst>
 </file>
@@ -5592,10 +5589,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I234" sqref="I234"/>
+      <selection pane="bottomRight" activeCell="P176" sqref="P176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5612,7 +5609,7 @@
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="60.5703125" customWidth="1"/>
     <col min="12" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="35.5703125" customWidth="1"/>
+    <col min="16" max="16" width="64.85546875" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -6877,7 +6874,7 @@
       </c>
       <c r="K38" s="25"/>
       <c r="L38" s="35" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>843</v>
@@ -6886,10 +6883,10 @@
         <v>883</v>
       </c>
       <c r="O38" s="25" t="s">
-        <v>843</v>
+        <v>134</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -6931,7 +6928,7 @@
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="35" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>843</v>
@@ -6940,10 +6937,10 @@
         <v>885</v>
       </c>
       <c r="O39" s="25" t="s">
-        <v>843</v>
+        <v>134</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -11655,7 +11652,7 @@
       </c>
       <c r="K174" s="25"/>
       <c r="L174" s="25" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="M174" s="25" t="s">
         <v>843</v>
@@ -11664,10 +11661,10 @@
         <v>883</v>
       </c>
       <c r="O174" s="25" t="s">
-        <v>843</v>
+        <v>134</v>
       </c>
       <c r="P174" s="25" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="Q174" s="25"/>
       <c r="R174" s="26"/>
@@ -11709,7 +11706,7 @@
       </c>
       <c r="K175" s="25"/>
       <c r="L175" s="25" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="M175" s="25" t="s">
         <v>843</v>
@@ -11718,10 +11715,10 @@
         <v>885</v>
       </c>
       <c r="O175" s="25" t="s">
-        <v>843</v>
+        <v>134</v>
       </c>
       <c r="P175" s="25" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="Q175" s="25"/>
       <c r="R175" s="26"/>
@@ -13680,13 +13677,13 @@
         <v>45281</v>
       </c>
       <c r="G232" s="38" t="s">
+        <v>906</v>
+      </c>
+      <c r="H232" s="38" t="s">
+        <v>907</v>
+      </c>
+      <c r="I232" s="38" t="s">
         <v>908</v>
-      </c>
-      <c r="H232" s="38" t="s">
-        <v>909</v>
-      </c>
-      <c r="I232" s="38" t="s">
-        <v>910</v>
       </c>
       <c r="J232" s="25" t="s">
         <v>861</v>
@@ -13724,13 +13721,13 @@
         <v>45281</v>
       </c>
       <c r="G233" s="34" t="s">
+        <v>909</v>
+      </c>
+      <c r="H233" s="38" t="s">
+        <v>910</v>
+      </c>
+      <c r="I233" s="34" t="s">
         <v>911</v>
-      </c>
-      <c r="H233" s="38" t="s">
-        <v>912</v>
-      </c>
-      <c r="I233" s="34" t="s">
-        <v>913</v>
       </c>
       <c r="J233" s="25" t="s">
         <v>134</v>
@@ -13768,13 +13765,13 @@
         <v>45281</v>
       </c>
       <c r="G234" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="H234" s="38" t="s">
+        <v>913</v>
+      </c>
+      <c r="I234" s="38" t="s">
         <v>914</v>
-      </c>
-      <c r="H234" s="38" t="s">
-        <v>915</v>
-      </c>
-      <c r="I234" s="38" t="s">
-        <v>916</v>
       </c>
       <c r="J234" s="25" t="s">
         <v>134</v>
